--- a/day3.xlsx
+++ b/day3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/utkarsh/Downloads/Accio_excel/Excel-for-DA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC00209-E39E-654A-AAAB-44591758DA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233BCA9D-492D-8345-8695-2921DB9C25AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="2" xr2:uid="{4AA67202-ABE1-0342-A1A4-4D589E6D8A89}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="3" xr2:uid="{4AA67202-ABE1-0342-A1A4-4D589E6D8A89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t>Product_id</t>
   </si>
@@ -232,6 +232,15 @@
   </si>
   <si>
     <t>(a+b+c)/3</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>ANS</t>
+  </si>
+  <si>
+    <t>…..</t>
   </si>
 </sst>
 </file>
@@ -241,7 +250,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;₹&quot;* #,##0.00_);_(&quot;₹&quot;* \(#,##0.00\);_(&quot;₹&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="171" formatCode="&quot;₹&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;₹&quot;#,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -312,8 +321,8 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -327,7 +336,7 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="171" formatCode="&quot;₹&quot;#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;₹&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -350,7 +359,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="171" formatCode="&quot;₹&quot;#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;₹&quot;#,##0.00"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1232,7 +1241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC2C156-DE90-104A-8024-1CEE815DEF8F}">
   <dimension ref="B3:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="183" workbookViewId="0">
+    <sheetView zoomScale="183" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -1385,533 +1394,588 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE26B3F3-E81A-D34F-B9DF-013BAFDB986D}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="278" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="278" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>27</v>
       </c>
       <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
       <c r="B2">
+        <v>4000</v>
+      </c>
+      <c r="C2">
         <v>17</v>
       </c>
-      <c r="C2" t="b">
-        <f>B2&gt;=18</f>
-        <v>0</v>
-      </c>
       <c r="D2" t="b">
+        <f>C2&gt;=18</f>
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
         <f>A2="MH"</f>
         <v>1</v>
       </c>
-      <c r="E2">
-        <f>C2*D2</f>
-        <v>0</v>
-      </c>
-      <c r="F2" t="b">
-        <f>AND(C2,D2)</f>
+      <c r="F2">
+        <f>D2*E2</f>
         <v>0</v>
       </c>
       <c r="G2" t="b">
-        <f>OR(C2,D2)</f>
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <f>C2+D2</f>
-        <v>1</v>
-      </c>
-      <c r="I2" t="b">
-        <f>AND(B2&gt;=18,A2="MH")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <f>AND(D2,E2)</f>
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <f>OR(D2,E2)</f>
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <f>D2+E2</f>
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
+        <f>AND(C2&gt;=18,A2="MH")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>30</v>
       </c>
       <c r="B3">
+        <v>3000</v>
+      </c>
+      <c r="C3">
         <v>18</v>
       </c>
-      <c r="C3" t="b">
-        <f>B3&gt;=18</f>
-        <v>1</v>
-      </c>
       <c r="D3" t="b">
-        <f t="shared" ref="D3:D11" si="0">A3="MH"</f>
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E11" si="1">C3*D3</f>
-        <v>0</v>
-      </c>
-      <c r="F3" t="b">
-        <f>AND(C3,D3)</f>
+        <f>C3&gt;=18</f>
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <f t="shared" ref="E3:E11" si="0">A3="MH"</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F11" si="1">D3*E3</f>
         <v>0</v>
       </c>
       <c r="G3" t="b">
-        <f>OR(C3,D3)</f>
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H11" si="2">C3+D3</f>
-        <v>1</v>
-      </c>
-      <c r="I3" t="b">
-        <f>AND(B3&gt;=18,A3="MH")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <f>AND(D3,E3)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <f>OR(D3,E3)</f>
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I11" si="2">D3+E3</f>
+        <v>1</v>
+      </c>
+      <c r="J3" t="b">
+        <f>AND(C3&gt;=18,A3="MH")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
       <c r="B4">
+        <v>8000</v>
+      </c>
+      <c r="C4">
         <v>19</v>
       </c>
-      <c r="C4" t="b">
-        <f t="shared" ref="C3:C11" si="3">B4&gt;=18</f>
-        <v>1</v>
-      </c>
       <c r="D4" t="b">
+        <f t="shared" ref="D4:D11" si="3">C4&gt;=18</f>
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
         <f>A4="MH"</f>
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F4" t="b">
-        <f t="shared" ref="F3:F11" si="4">AND(C4,D4)</f>
-        <v>0</v>
-      </c>
       <c r="G4" t="b">
-        <f t="shared" ref="G3:G11" si="5">OR(C4,D4)</f>
-        <v>1</v>
-      </c>
-      <c r="H4">
+        <f t="shared" ref="G4:G11" si="4">AND(D4,E4)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <f t="shared" ref="H4:H11" si="5">OR(D4,E4)</f>
+        <v>1</v>
+      </c>
+      <c r="I4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I4" t="b">
-        <f t="shared" ref="I3:I11" si="6">AND(B4&gt;=18,A4="MH")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" t="b">
+        <f t="shared" ref="J4:J11" si="6">AND(C4&gt;=18,A4="MH")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>32</v>
       </c>
       <c r="B5">
+        <v>10000</v>
+      </c>
+      <c r="C5">
         <v>20</v>
       </c>
-      <c r="C5" t="b">
+      <c r="D5" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D5" t="b">
+      <c r="E5" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F5" t="b">
+      <c r="G5" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G5" t="b">
+      <c r="H5" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I5" t="b">
+      <c r="J5" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="13">
+        <v>8000</v>
+      </c>
+      <c r="C6" s="13">
         <v>21</v>
       </c>
-      <c r="C6" s="13" t="b">
+      <c r="D6" s="13" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D6" s="13" t="b">
+      <c r="E6" s="13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F6" t="b">
-        <f>AND(C6,D6)</f>
-        <v>1</v>
-      </c>
       <c r="G6" t="b">
+        <f>AND(D6,E6)</f>
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I6" t="b">
+      <c r="J6" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>30</v>
       </c>
       <c r="B7">
+        <v>9000</v>
+      </c>
+      <c r="C7">
         <v>17</v>
       </c>
-      <c r="C7" t="b">
+      <c r="D7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D7" t="b">
+      <c r="E7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F7" t="b">
+      <c r="G7" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G7" t="b">
+      <c r="H7" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I7" t="b">
+      <c r="J7" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>31</v>
       </c>
       <c r="B8">
+        <v>15000</v>
+      </c>
+      <c r="C8">
         <v>18</v>
       </c>
-      <c r="C8" t="b">
+      <c r="D8" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D8" t="b">
+      <c r="E8" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F8" t="b">
+      <c r="G8" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G8" t="b">
+      <c r="H8" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I8" t="b">
+      <c r="J8" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>29</v>
       </c>
       <c r="B9">
+        <v>34000</v>
+      </c>
+      <c r="C9">
         <v>16</v>
       </c>
-      <c r="C9" t="b">
+      <c r="D9" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D9" t="b">
+      <c r="E9" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F9" t="b">
+      <c r="G9" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G9" t="b">
+      <c r="H9" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I9" t="b">
+      <c r="J9" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>33</v>
       </c>
       <c r="B10">
+        <v>9222</v>
+      </c>
+      <c r="C10">
         <v>20</v>
       </c>
-      <c r="C10" t="b">
+      <c r="D10" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D10" t="b">
+      <c r="E10" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F10" t="b">
+      <c r="G10" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G10" t="b">
+      <c r="H10" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I10" t="b">
+      <c r="J10" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
       <c r="B11">
+        <v>85000</v>
+      </c>
+      <c r="C11">
         <v>24</v>
       </c>
-      <c r="C11" t="b">
+      <c r="D11" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D11" t="b">
+      <c r="E11" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F11" t="b">
+      <c r="G11" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G11" t="b">
+      <c r="H11" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I11" t="b">
+      <c r="J11" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
-        <f>SUMIF(A2:A11,"=MH",B2:B11)</f>
-        <v>78</v>
-      </c>
-      <c r="D14" t="s">
+        <f>SUMIF(A2:A11,A17,C2:C11)</f>
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <f>SUMIF(A2:A11,A17,B2:B11)</f>
+        <v>10000</v>
+      </c>
+      <c r="E14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D15" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D16" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D17" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
-        <f>SUMIFS(B2:B11,A2:A11,"=MH",B2:B11,"&gt;=18")</f>
+        <f>SUMIFS(C2:C11,A2:A11,"=MH",C2:C11,"&gt;=18")</f>
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D20" s="13" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E20" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="F20" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D21" t="b">
-        <v>1</v>
-      </c>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D22" s="14" t="b">
-        <v>1</v>
-      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E22" s="14" t="b">
         <v>1</v>
       </c>
       <c r="F22" s="14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D23" t="b">
-        <v>0</v>
-      </c>
+      <c r="G22" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D24" t="b">
-        <v>0</v>
-      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D27" t="b">
-        <v>1</v>
-      </c>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D28" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E28" t="b">
         <v>1</v>
       </c>
       <c r="F28" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D29" t="b">
-        <v>0</v>
-      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D30" t="b">
-        <v>0</v>
-      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
         <v>1</v>
       </c>
     </row>
